--- a/Primeur A.xlsx
+++ b/Primeur A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Statim\Desktop\Power BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maFormation\GitHub\projet\Formation power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF0B74-C088-4C5E-B998-D5FCA9FC379D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3A27EB-33F2-44C2-9134-FD904F3D209E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15189" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primeur A" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -289,10 +357,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="DEDEDE"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="181B28"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -584,18 +652,18 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -606,7 +674,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,8 +696,11 @@
       <c r="H3" s="8">
         <v>43617</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="9">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -651,8 +722,11 @@
       <c r="H4" s="7">
         <v>2435</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="4">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -674,8 +748,11 @@
       <c r="H5" s="3">
         <v>553</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -697,8 +774,11 @@
       <c r="H6" s="3">
         <v>2454</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -720,8 +800,11 @@
       <c r="H7" s="3">
         <v>1054</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="4">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -742,6 +825,9 @@
       </c>
       <c r="H8" s="4">
         <v>1650</v>
+      </c>
+      <c r="I8" s="4">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -758,37 +844,37 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="9">
         <v>43647</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="4">
         <v>836</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1585</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2427</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>596</v>
       </c>
